--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639481.1518949466</v>
+        <v>689315.8161709987</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7673616.083523286</v>
+        <v>7686242.347060208</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>317.8227870144768</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>138.6311331455802</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>142.0184881503033</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.86671728342286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>318.1796512114623</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>146.9293224666882</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>13.51446909089693</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>173.1744624693467</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>47.06008056049016</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>121.4943140494927</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>206.0370214115934</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>411.0681431807236</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.43430199953463</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225715</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>173.7950029088911</v>
+        <v>90.97964783089151</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225728</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1853,7 +1853,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>155.5776225602624</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>133.2083887875882</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225706</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>239.7909713904973</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2081,13 +2081,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>384.0290916886137</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586659</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H22" t="n">
-        <v>35.34780583513542</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,7 +2479,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>100.789047699126</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225817</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>101.1195220207937</v>
+        <v>18.05677735225808</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>240.9739924675005</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3187,22 +3187,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>86.20228614855907</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>65.07405371603608</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3244,7 +3244,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>29.10461178739004</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.01313443288623</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>120.4898091149244</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3901,22 +3901,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>104.9141091864659</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022615</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -4034,7 +4034,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655109</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>26.70160847752084</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>115.7469331998936</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>977.1376979168679</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901426</v>
+        <v>538.9952251002911</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>507.1258443151397</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>73.35109947343491</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>85.75750262505913</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336197</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336197</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336197</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>693.4601489336197</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1301.16279524218</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1908.865441550741</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2231.680906071374</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2231.680906071374</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1826.825451482408</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1811.723392102122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1403.437268401776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397424</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064432</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>523.1146084662527</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>350.5528969494776</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>350.5528969494776</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>618.2526391103224</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1077.736506291235</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1519.99530944888</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2287.171452645003</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1750.392590344265</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1463.437082214695</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>1463.437082214695</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>1319.984063881055</v>
       </c>
       <c r="Y4" t="n">
-        <v>523.1146084662527</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.5866093689378</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C5" t="n">
-        <v>917.4845405927651</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>339.7238357097111</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>339.7238357097111</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>173.8458429112338</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>173.8458429112338</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>308.7021231727439</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>728.7550221176472</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1148.807921062551</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.992026257106</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2389.112579835562</v>
       </c>
       <c r="U7" t="n">
-        <v>1276.380284194886</v>
+        <v>2110.679579088667</v>
       </c>
       <c r="V7" t="n">
-        <v>1276.380284194886</v>
+        <v>1823.724070959097</v>
       </c>
       <c r="W7" t="n">
-        <v>1004.353879781178</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X7" t="n">
-        <v>758.96212511459</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>531.5424544286982</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>988.0939688115317</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>549.9514959949549</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>518.0821152098035</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>84.3073703680987</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851268</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>491.824636757607</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>491.824636757607</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>491.824636757607</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743886</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873483</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172577</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925634</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925634</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925634</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925634</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377071</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996786</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1414.393539296439</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230021</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897028</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>672.7335162447931</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>672.7335162447931</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447931</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>329.2514685506974</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>206.5299392077754</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>206.5299392077754</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851268</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851268</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851268</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851268</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851268</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>354.8826118366016</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>773.0924936045627</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1228.145194903657</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1670.403998061302</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061302</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061302</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925634</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631006</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929002</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507458</v>
+        <v>2461.942622985374</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.625135760563</v>
+        <v>2183.509622238479</v>
       </c>
       <c r="V10" t="n">
-        <v>846.6696276309933</v>
+        <v>1896.55411410891</v>
       </c>
       <c r="W10" t="n">
-        <v>574.6432232172849</v>
+        <v>1624.527709695201</v>
       </c>
       <c r="X10" t="n">
-        <v>329.2514685506974</v>
+        <v>1379.135955028614</v>
       </c>
       <c r="Y10" t="n">
-        <v>329.2514685506974</v>
+        <v>1151.716284342722</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245547</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
         <v>2481.810506693463</v>
@@ -5066,25 +5066,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4764.642973450169</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257034</v>
+        <v>4170.462783046462</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457496</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247378</v>
+        <v>3346.464865036807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547032</v>
+        <v>2938.17874133646</v>
       </c>
     </row>
     <row r="12">
@@ -5176,16 +5176,16 @@
         <v>947.2320137580465</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935314</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552876</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G13" t="n">
         <v>96.73597668111519</v>
@@ -5227,7 +5227,7 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U13" t="n">
         <v>2170.843970372791</v>
@@ -5270,46 +5270,46 @@
         <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>403.2461837293682</v>
+        <v>521.7292312988378</v>
       </c>
       <c r="K14" t="n">
-        <v>1237.596475687546</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>1356.079523257016</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
         <v>4181.958796257035</v>
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
         <v>439.0343056935313</v>
@@ -5425,16 +5425,16 @@
         <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,16 +5461,16 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W16" t="n">
         <v>1611.862057829513</v>
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847297</v>
       </c>
       <c r="F17" t="n">
-        <v>787.2639626146351</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
+        <v>97.15276605397517</v>
+      </c>
+      <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
-      <c r="I17" t="n">
-        <v>96.73597668111519</v>
-      </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>1171.795942933974</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2328.843778144525</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>3454.574761580972</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>4434.754428151279</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4434.754428151279</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112635</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429653</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363479</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174172</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580465</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412714</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7923094427941</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>439.0343056935312</v>
       </c>
       <c r="F19" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J19" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2446.098318867741</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1880.709809991277</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X19" t="n">
         <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2472.72409529553</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.263962614635</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111519</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111519</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940406</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239597</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239597</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4493.924657556614</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4131.30770749044</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
-        <v>3726.452252901473</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3307.309789480784</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2899.023665780438</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987274</v>
+        <v>944.0533615061028</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819523</v>
+        <v>771.4916499893277</v>
       </c>
       <c r="D22" t="n">
-        <v>467.790109783475</v>
+        <v>605.6136571908504</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342123</v>
+        <v>435.8556534415877</v>
       </c>
       <c r="F22" t="n">
-        <v>298.0321060342122</v>
+        <v>259.1485994033438</v>
       </c>
       <c r="G22" t="n">
-        <v>132.4408310600398</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583914</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713472</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1363.291650910982</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177145</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.754677688392</v>
+        <v>970.9960463903957</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716169</v>
+        <v>798.4343348736207</v>
       </c>
       <c r="D25" t="n">
-        <v>639.1929661716169</v>
+        <v>632.5563420751434</v>
       </c>
       <c r="E25" t="n">
-        <v>469.4349624223541</v>
+        <v>462.7983383258808</v>
       </c>
       <c r="F25" t="n">
-        <v>292.7279083841104</v>
+        <v>286.091284287637</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134646</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134646</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795275</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6227,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.8551150562604</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2616.779518839444</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2370.9000724179</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2092.467071671005</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1805.511563541435</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W28" t="n">
-        <v>1533.485159127727</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1288.093404461139</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.673733775247</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1077.292364523333</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C34" t="n">
-        <v>904.7306530065586</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D34" t="n">
-        <v>738.8526602080813</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6883,7 +6883,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
         <v>2292.381813755403</v>
@@ -6892,16 +6892,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2013.948813008508</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1741.9224085948</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1496.530653928212</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y34" t="n">
-        <v>1269.110983242321</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6944,7 +6944,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276422</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291649</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7138,7 +7138,7 @@
         <v>1209.575145798643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>982.1554751127513</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,28 +7181,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7418,43 +7418,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883922</v>
+        <v>790.3368563937637</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716172</v>
+        <v>617.7751448769886</v>
       </c>
       <c r="D43" t="n">
-        <v>639.1929661716172</v>
+        <v>451.8971520785112</v>
       </c>
       <c r="E43" t="n">
-        <v>533.2191185085204</v>
+        <v>282.1391483292484</v>
       </c>
       <c r="F43" t="n">
-        <v>356.5120644702766</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303137</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759859</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.992967093271</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127508</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
@@ -7658,40 +7658,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1035.728611060351</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X46" t="n">
-        <v>1454.96690046523</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1227.547229779339</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>37.02042229785093</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>209.9062776003134</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8371,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>384.022963791449</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314085</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.214816986648</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314085</v>
+        <v>469.682203560008</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314084</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662733</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314085</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>233.8696880943425</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314085</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>480.4689614154649</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457102</v>
+        <v>429.2861157754775</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140711</v>
+        <v>406.105460509576</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>309.606269745711</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9887,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>10.96843159933508</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.38105307846673</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>185.1957776566206</v>
+        <v>268.0111327346202</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>267.5985112554888</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.14686572942432</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,13 +23969,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>49.7319563997972</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H22" t="n">
-        <v>103.1553467313938</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>63.1463145253046</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>69.71657238081325</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>56.52943299418958</v>
+        <v>139.5921776627252</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,13 +24886,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.67467827192525</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>84.63380825304824</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>102.986369995734</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>160.7958207444072</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>212.1323395461466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>122.4480280049972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.14631452530426</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>144.1344859240865</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>109.3985407791392</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669044.7600564528</v>
+        <v>672932.4661171277</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>669044.7600564528</v>
+        <v>674033.3608795197</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>669769.8819691997</v>
+        <v>674033.3608795197</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>645056.1790542627</v>
+        <v>645056.1790542628</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>645056.1790542628</v>
+        <v>645056.1790542627</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>672278.2869276769</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672278.2869276768</v>
+        <v>672278.2869276769</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672278.2869276769</v>
+        <v>672278.2869276768</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>281477.3429424645</v>
       </c>
       <c r="C2" t="n">
-        <v>281477.3429424643</v>
+        <v>281477.3429424645</v>
       </c>
       <c r="D2" t="n">
-        <v>281477.3429424645</v>
+        <v>281477.3429424644</v>
       </c>
       <c r="E2" t="n">
         <v>265400.0464351302</v>
       </c>
       <c r="F2" t="n">
-        <v>265400.0464351301</v>
+        <v>265400.0464351302</v>
       </c>
       <c r="G2" t="n">
         <v>265400.0464351301</v>
@@ -26344,7 +26344,7 @@
         <v>276600.2316721099</v>
       </c>
       <c r="M2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="N2" t="n">
         <v>276600.2316721099</v>
@@ -26353,7 +26353,7 @@
         <v>276600.2316721099</v>
       </c>
       <c r="P2" t="n">
-        <v>276600.2316721098</v>
+        <v>276600.23167211</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390679</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200241</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520277</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283946</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784525</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509679</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104679</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>141940.3832228852</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>174066.4702932125</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
+        <v>26563.08616012789</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26563.08616012789</v>
+      </c>
+      <c r="G4" t="n">
         <v>26563.08616012788</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>26563.08616012788</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26563.08616012789</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26563.08616012789</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846964</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
+        <v>73519.34227764753</v>
+      </c>
+      <c r="G5" t="n">
         <v>73519.34227764752</v>
       </c>
-      <c r="G5" t="n">
-        <v>73519.34227764753</v>
-      </c>
       <c r="H5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="O5" t="n">
         <v>77718.23860579252</v>
       </c>
-      <c r="O5" t="n">
-        <v>77718.2386057925</v>
-      </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101571.1323149299</v>
+        <v>-137124.4330424654</v>
       </c>
       <c r="C6" t="n">
-        <v>40620.16834477988</v>
+        <v>59166.97377478016</v>
       </c>
       <c r="D6" t="n">
-        <v>34854.79502877989</v>
+        <v>76507.51814868681</v>
       </c>
       <c r="E6" t="n">
-        <v>-58481.67575467291</v>
+        <v>3505.984232443479</v>
       </c>
       <c r="F6" t="n">
-        <v>165317.6179973547</v>
+        <v>165241.0594425579</v>
       </c>
       <c r="G6" t="n">
-        <v>165317.6179973547</v>
+        <v>165241.0594425579</v>
       </c>
       <c r="H6" t="n">
-        <v>165317.6179973547</v>
+        <v>165241.0594425578</v>
       </c>
       <c r="I6" t="n">
-        <v>152833.1986832752</v>
+        <v>152809.9743438926</v>
       </c>
       <c r="J6" t="n">
-        <v>60183.44897112448</v>
+        <v>10566.86049111887</v>
       </c>
       <c r="K6" t="n">
-        <v>171197.9143161147</v>
+        <v>157360.6814088868</v>
       </c>
       <c r="L6" t="n">
-        <v>162250.3032276051</v>
+        <v>171174.689976732</v>
       </c>
       <c r="M6" t="n">
-        <v>-15593.0722943531</v>
+        <v>36184.74536372866</v>
       </c>
       <c r="N6" t="n">
-        <v>171197.9143161147</v>
+        <v>171174.689976732</v>
       </c>
       <c r="O6" t="n">
-        <v>171197.9143161147</v>
+        <v>171174.6899767321</v>
       </c>
       <c r="P6" t="n">
-        <v>171197.9143161146</v>
+        <v>171174.6899767321</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314085</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130415</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825314</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080547</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825311</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825314</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>113.7278999628231</v>
-      </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>117.9989465105731</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>100.9193489696184</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.27875669561</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.8569235685964</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>253.8775775763888</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>144.1344859240864</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>102.474208270079</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>376.5286747343941</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>49.34178035211457</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>37.38363054573588</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>37.02042229785093</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>209.9062776003134</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>384.022963791449</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>459.6491932314085</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.214816986648</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314085</v>
+        <v>469.682203560008</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314084</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35258,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>288.2218006662733</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314085</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314084</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,22 +35331,22 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>233.8696880943425</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314085</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>480.4689614154649</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>309.6062697457102</v>
+        <v>429.2861157754775</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>421.9740460140711</v>
+        <v>406.105460509576</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>309.606269745711</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36595,7 +36595,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36604,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36832,25 +36832,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>832.9621348837854</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512943</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37786,10 +37786,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38187,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
